--- a/data/trans_orig/FREC_TABACO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/FREC_TABACO-Edad-trans_orig.xlsx
@@ -13893,12 +13893,12 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>768</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -13908,12 +13908,12 @@
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">

--- a/data/trans_orig/FREC_TABACO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/FREC_TABACO-Edad-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Frecuencia de consumición de tabaco en País Vasco</t>
+          <t>Frecuencia de consumición de tabaco en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5341,7 +5341,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Frecuencia de consumición de tabaco en Andalucia</t>
+          <t>Frecuencia de consumición de tabaco en Andalucia (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -10136,7 +10136,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Frecuencia de consumición de tabaco en C.Valenciana</t>
+          <t>Frecuencia de consumición de tabaco en C.Valenciana (tasa de respuesta: 99,79%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -14931,7 +14931,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Frecuencia de consumición de tabaco en Barcelona</t>
+          <t>Frecuencia de consumición de tabaco en Barcelona (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
